--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adnan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adnan/Desktop/All Folders/Data Science/Masters in DataScience/Projects/Sythetic Data Generator/Synthetic Data Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE3571-D4C1-A545-B990-6B675827E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{757B97AF-CAF3-AB42-AF9D-CCDC9266B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DF99D2F5-413D-2C43-B6DC-33AE86B4A369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="14">
   <si>
     <t>Model Name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>VAE-LGBM</t>
+  </si>
+  <si>
+    <t>Original Dataset</t>
   </si>
 </sst>
 </file>
@@ -157,14 +160,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,6 +715,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>315601</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72256417-4BB9-23CE-33DD-606E7680AAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="16370300"/>
+          <a:ext cx="5116201" cy="4699000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1012,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5346E7D3-00BC-4946-918F-DCCB8F40AF8F}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,83 +1084,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>10000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>10000</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>100</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>100</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1"/>
@@ -1121,462 +1168,467 @@
     <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="J3" s="2"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>10000</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>200</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>100</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>10000</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>100</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>100</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H28" s="7"/>
+      <c r="H28" s="6"/>
       <c r="J28" s="2"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H32" s="7"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="7"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H36" s="7"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="7"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="7"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H39" s="7"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H40" s="7"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H41" s="7"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="7"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="7"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H44" s="7"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H45" s="7"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H46" s="7"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H47" s="7"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H48" s="7"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="6" t="s">
+      <c r="H51" s="6"/>
+      <c r="I51" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="N51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>20000</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>100</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>100</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="6" t="s">
+      <c r="H52" s="6"/>
+      <c r="I52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>20000</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>100</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="5">
         <v>100</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H53" s="7"/>
+      <c r="H53" s="6"/>
       <c r="J53" s="2"/>
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="4" t="s">
+      <c r="H54" s="6"/>
+      <c r="I54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4" t="s">
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H55" s="7"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H56" s="7"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H57" s="7"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H58" s="7"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H59" s="7"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H60" s="7"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H61" s="7"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H62" s="7"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H63" s="7"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="7"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="I54:M54"/>
     <mergeCell ref="N54:R54"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adnan/Desktop/All Folders/Data Science/Masters in DataScience/Projects/Sythetic Data Generator/Synthetic Data Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{757B97AF-CAF3-AB42-AF9D-CCDC9266B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D3D5A-53DD-A440-B511-9AEC4CEE0091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DF99D2F5-413D-2C43-B6DC-33AE86B4A369}"/>
   </bookViews>
